--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Sema4g-Plxnb2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Sema4g-Plxnb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,12 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Plxnb2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.62636910220049</v>
+        <v>0.1372626666666667</v>
       </c>
       <c r="H2">
-        <v>1.62636910220049</v>
+        <v>0.411788</v>
       </c>
       <c r="I2">
-        <v>0.5993948674179267</v>
+        <v>0.03786515932335802</v>
       </c>
       <c r="J2">
-        <v>0.5993948674179267</v>
+        <v>0.03786515932335802</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.8462765882418</v>
+        <v>13.10053366666667</v>
       </c>
       <c r="N2">
-        <v>12.8462765882418</v>
+        <v>39.301601</v>
       </c>
       <c r="O2">
-        <v>0.06553885745863927</v>
+        <v>0.0658796861383586</v>
       </c>
       <c r="P2">
-        <v>0.06553885745863927</v>
+        <v>0.06587968613835858</v>
       </c>
       <c r="Q2">
-        <v>20.89278732143799</v>
+        <v>1.798214185843111</v>
       </c>
       <c r="R2">
-        <v>20.89278732143799</v>
+        <v>16.183927672588</v>
       </c>
       <c r="S2">
-        <v>0.03928365477714348</v>
+        <v>0.002494544811801769</v>
       </c>
       <c r="T2">
-        <v>0.03928365477714348</v>
+        <v>0.002494544811801769</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.62636910220049</v>
+        <v>0.1372626666666667</v>
       </c>
       <c r="H3">
-        <v>1.62636910220049</v>
+        <v>0.411788</v>
       </c>
       <c r="I3">
-        <v>0.5993948674179267</v>
+        <v>0.03786515932335802</v>
       </c>
       <c r="J3">
-        <v>0.5993948674179267</v>
+        <v>0.03786515932335802</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>41.0870894334888</v>
+        <v>41.17343766666667</v>
       </c>
       <c r="N3">
-        <v>41.0870894334888</v>
+        <v>123.520313</v>
       </c>
       <c r="O3">
-        <v>0.2096172287179701</v>
+        <v>0.2070521109852959</v>
       </c>
       <c r="P3">
-        <v>0.2096172287179701</v>
+        <v>0.2070521109852959</v>
       </c>
       <c r="Q3">
-        <v>66.82277275397442</v>
+        <v>5.651575849960445</v>
       </c>
       <c r="R3">
-        <v>66.82277275397442</v>
+        <v>50.86418264964401</v>
       </c>
       <c r="S3">
-        <v>0.1256434910159209</v>
+        <v>0.007840061170695838</v>
       </c>
       <c r="T3">
-        <v>0.1256434910159209</v>
+        <v>0.007840061170695837</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.62636910220049</v>
+        <v>0.1372626666666667</v>
       </c>
       <c r="H4">
-        <v>1.62636910220049</v>
+        <v>0.411788</v>
       </c>
       <c r="I4">
-        <v>0.5993948674179267</v>
+        <v>0.03786515932335802</v>
       </c>
       <c r="J4">
-        <v>0.5993948674179267</v>
+        <v>0.03786515932335802</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>63.5190318067127</v>
+        <v>63.73145666666667</v>
       </c>
       <c r="N4">
-        <v>63.5190318067127</v>
+        <v>191.19437</v>
       </c>
       <c r="O4">
-        <v>0.3240600296043198</v>
+        <v>0.3204913989896037</v>
       </c>
       <c r="P4">
-        <v>0.3240600296043198</v>
+        <v>0.3204913989896036</v>
       </c>
       <c r="Q4">
-        <v>103.3053907321277</v>
+        <v>8.747949692617778</v>
       </c>
       <c r="R4">
-        <v>103.3053907321277</v>
+        <v>78.73154723355999</v>
       </c>
       <c r="S4">
-        <v>0.1942399184801307</v>
+        <v>0.01213545788450725</v>
       </c>
       <c r="T4">
-        <v>0.1942399184801307</v>
+        <v>0.01213545788450725</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.62636910220049</v>
+        <v>0.1372626666666667</v>
       </c>
       <c r="H5">
-        <v>1.62636910220049</v>
+        <v>0.411788</v>
       </c>
       <c r="I5">
-        <v>0.5993948674179267</v>
+        <v>0.03786515932335802</v>
       </c>
       <c r="J5">
-        <v>0.5993948674179267</v>
+        <v>0.03786515932335802</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.33787363553991</v>
+        <v>66.36787400000001</v>
       </c>
       <c r="N5">
-        <v>65.33787363553991</v>
+        <v>199.103622</v>
       </c>
       <c r="O5">
-        <v>0.333339357706941</v>
+        <v>0.3337493586169783</v>
       </c>
       <c r="P5">
-        <v>0.333339357706941</v>
+        <v>0.3337493586169782</v>
       </c>
       <c r="Q5">
-        <v>106.2634988843221</v>
+        <v>9.109831366237335</v>
       </c>
       <c r="R5">
-        <v>106.2634988843221</v>
+        <v>81.98848229613601</v>
       </c>
       <c r="S5">
-        <v>0.1998019001179288</v>
+        <v>0.01263747263810044</v>
       </c>
       <c r="T5">
-        <v>0.1998019001179288</v>
+        <v>0.01263747263810043</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.62636910220049</v>
+        <v>0.1372626666666667</v>
       </c>
       <c r="H6">
-        <v>1.62636910220049</v>
+        <v>0.411788</v>
       </c>
       <c r="I6">
-        <v>0.5993948674179267</v>
+        <v>0.03786515932335802</v>
       </c>
       <c r="J6">
-        <v>0.5993948674179267</v>
+        <v>0.03786515932335802</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.2198069288072</v>
+        <v>14.48213333333333</v>
       </c>
       <c r="N6">
-        <v>13.2198069288072</v>
+        <v>43.4464</v>
       </c>
       <c r="O6">
-        <v>0.06744452651212984</v>
+        <v>0.07282744526976351</v>
       </c>
       <c r="P6">
-        <v>0.06744452651212984</v>
+        <v>0.07282744526976349</v>
       </c>
       <c r="Q6">
-        <v>21.50028552606798</v>
+        <v>1.987856240355555</v>
       </c>
       <c r="R6">
-        <v>21.50028552606798</v>
+        <v>17.8907061632</v>
       </c>
       <c r="S6">
-        <v>0.04042590302680291</v>
+        <v>0.002757622818252732</v>
       </c>
       <c r="T6">
-        <v>0.04042590302680291</v>
+        <v>0.002757622818252731</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.271094637671754</v>
+        <v>1.687002666666667</v>
       </c>
       <c r="H7">
-        <v>0.271094637671754</v>
+        <v>5.061008</v>
       </c>
       <c r="I7">
-        <v>0.09991135111034631</v>
+        <v>0.4653750819761371</v>
       </c>
       <c r="J7">
-        <v>0.09991135111034631</v>
+        <v>0.4653750819761371</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.8462765882418</v>
+        <v>13.10053366666667</v>
       </c>
       <c r="N7">
-        <v>12.8462765882418</v>
+        <v>39.301601</v>
       </c>
       <c r="O7">
-        <v>0.06553885745863927</v>
+        <v>0.0658796861383586</v>
       </c>
       <c r="P7">
-        <v>0.06553885745863927</v>
+        <v>0.06587968613835858</v>
       </c>
       <c r="Q7">
-        <v>3.482556697120547</v>
+        <v>22.10063523042311</v>
       </c>
       <c r="R7">
-        <v>3.482556697120547</v>
+        <v>198.905717073808</v>
       </c>
       <c r="S7">
-        <v>0.006548075798921048</v>
+        <v>0.03065876433720081</v>
       </c>
       <c r="T7">
-        <v>0.006548075798921048</v>
+        <v>0.03065876433720081</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.271094637671754</v>
+        <v>1.687002666666667</v>
       </c>
       <c r="H8">
-        <v>0.271094637671754</v>
+        <v>5.061008</v>
       </c>
       <c r="I8">
-        <v>0.09991135111034631</v>
+        <v>0.4653750819761371</v>
       </c>
       <c r="J8">
-        <v>0.09991135111034631</v>
+        <v>0.4653750819761371</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>41.0870894334888</v>
+        <v>41.17343766666667</v>
       </c>
       <c r="N8">
-        <v>41.0870894334888</v>
+        <v>123.520313</v>
       </c>
       <c r="O8">
-        <v>0.2096172287179701</v>
+        <v>0.2070521109852959</v>
       </c>
       <c r="P8">
-        <v>0.2096172287179701</v>
+        <v>0.2070521109852959</v>
       </c>
       <c r="Q8">
-        <v>11.1384896229586</v>
+        <v>69.45969913950046</v>
       </c>
       <c r="R8">
-        <v>11.1384896229586</v>
+        <v>625.1372922555041</v>
       </c>
       <c r="S8">
-        <v>0.02094314053721888</v>
+        <v>0.09635689312311432</v>
       </c>
       <c r="T8">
-        <v>0.02094314053721888</v>
+        <v>0.09635689312311431</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.271094637671754</v>
+        <v>1.687002666666667</v>
       </c>
       <c r="H9">
-        <v>0.271094637671754</v>
+        <v>5.061008</v>
       </c>
       <c r="I9">
-        <v>0.09991135111034631</v>
+        <v>0.4653750819761371</v>
       </c>
       <c r="J9">
-        <v>0.09991135111034631</v>
+        <v>0.4653750819761371</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>63.5190318067127</v>
+        <v>63.73145666666667</v>
       </c>
       <c r="N9">
-        <v>63.5190318067127</v>
+        <v>191.19437</v>
       </c>
       <c r="O9">
-        <v>0.3240600296043198</v>
+        <v>0.3204913989896037</v>
       </c>
       <c r="P9">
-        <v>0.3240600296043198</v>
+        <v>0.3204913989896036</v>
       </c>
       <c r="Q9">
-        <v>17.2196689129014</v>
+        <v>107.5151373472178</v>
       </c>
       <c r="R9">
-        <v>17.2196689129014</v>
+        <v>967.63623612496</v>
       </c>
       <c r="S9">
-        <v>0.03237727539862641</v>
+        <v>0.1491487110774337</v>
       </c>
       <c r="T9">
-        <v>0.03237727539862641</v>
+        <v>0.1491487110774336</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.271094637671754</v>
+        <v>1.687002666666667</v>
       </c>
       <c r="H10">
-        <v>0.271094637671754</v>
+        <v>5.061008</v>
       </c>
       <c r="I10">
-        <v>0.09991135111034631</v>
+        <v>0.4653750819761371</v>
       </c>
       <c r="J10">
-        <v>0.09991135111034631</v>
+        <v>0.4653750819761371</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>65.33787363553991</v>
+        <v>66.36787400000001</v>
       </c>
       <c r="N10">
-        <v>65.33787363553991</v>
+        <v>199.103622</v>
       </c>
       <c r="O10">
-        <v>0.333339357706941</v>
+        <v>0.3337493586169783</v>
       </c>
       <c r="P10">
-        <v>0.333339357706941</v>
+        <v>0.3337493586169782</v>
       </c>
       <c r="Q10">
-        <v>17.71274717946954</v>
+        <v>111.9627804189974</v>
       </c>
       <c r="R10">
-        <v>17.71274717946954</v>
+        <v>1007.665023770976</v>
       </c>
       <c r="S10">
-        <v>0.03330438560675551</v>
+        <v>0.1553186351258594</v>
       </c>
       <c r="T10">
-        <v>0.03330438560675551</v>
+        <v>0.1553186351258594</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.271094637671754</v>
+        <v>1.687002666666667</v>
       </c>
       <c r="H11">
-        <v>0.271094637671754</v>
+        <v>5.061008</v>
       </c>
       <c r="I11">
-        <v>0.09991135111034631</v>
+        <v>0.4653750819761371</v>
       </c>
       <c r="J11">
-        <v>0.09991135111034631</v>
+        <v>0.4653750819761371</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.2198069288072</v>
+        <v>14.48213333333333</v>
       </c>
       <c r="N11">
-        <v>13.2198069288072</v>
+        <v>43.4464</v>
       </c>
       <c r="O11">
-        <v>0.06744452651212984</v>
+        <v>0.07282744526976351</v>
       </c>
       <c r="P11">
-        <v>0.06744452651212984</v>
+        <v>0.07282744526976349</v>
       </c>
       <c r="Q11">
-        <v>3.583818769455531</v>
+        <v>24.43139755235555</v>
       </c>
       <c r="R11">
-        <v>3.583818769455531</v>
+        <v>219.8825779712</v>
       </c>
       <c r="S11">
-        <v>0.006738473768824465</v>
+        <v>0.03389207831252883</v>
       </c>
       <c r="T11">
-        <v>0.006738473768824465</v>
+        <v>0.03389207831252882</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.815887993028912</v>
+        <v>0.277751</v>
       </c>
       <c r="H12">
-        <v>0.815887993028912</v>
+        <v>0.833253</v>
       </c>
       <c r="I12">
-        <v>0.300693781471727</v>
+        <v>0.0766201482356602</v>
       </c>
       <c r="J12">
-        <v>0.300693781471727</v>
+        <v>0.0766201482356602</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.8462765882418</v>
+        <v>13.10053366666667</v>
       </c>
       <c r="N12">
-        <v>12.8462765882418</v>
+        <v>39.301601</v>
       </c>
       <c r="O12">
-        <v>0.06553885745863927</v>
+        <v>0.0658796861383586</v>
       </c>
       <c r="P12">
-        <v>0.06553885745863927</v>
+        <v>0.06587968613835858</v>
       </c>
       <c r="Q12">
-        <v>10.4811228234749</v>
+        <v>3.638686326450333</v>
       </c>
       <c r="R12">
-        <v>10.4811228234749</v>
+        <v>32.748176938053</v>
       </c>
       <c r="S12">
-        <v>0.01970712688257474</v>
+        <v>0.005047711317639804</v>
       </c>
       <c r="T12">
-        <v>0.01970712688257474</v>
+        <v>0.005047711317639803</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.815887993028912</v>
+        <v>0.277751</v>
       </c>
       <c r="H13">
-        <v>0.815887993028912</v>
+        <v>0.833253</v>
       </c>
       <c r="I13">
-        <v>0.300693781471727</v>
+        <v>0.0766201482356602</v>
       </c>
       <c r="J13">
-        <v>0.300693781471727</v>
+        <v>0.0766201482356602</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>41.0870894334888</v>
+        <v>41.17343766666667</v>
       </c>
       <c r="N13">
-        <v>41.0870894334888</v>
+        <v>123.520313</v>
       </c>
       <c r="O13">
-        <v>0.2096172287179701</v>
+        <v>0.2070521109852959</v>
       </c>
       <c r="P13">
-        <v>0.2096172287179701</v>
+        <v>0.2070521109852959</v>
       </c>
       <c r="Q13">
-        <v>33.52246293728859</v>
+        <v>11.43596348535434</v>
       </c>
       <c r="R13">
-        <v>33.52246293728859</v>
+        <v>102.923671368189</v>
       </c>
       <c r="S13">
-        <v>0.06303059716483032</v>
+        <v>0.01586436343619974</v>
       </c>
       <c r="T13">
-        <v>0.06303059716483032</v>
+        <v>0.01586436343619974</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.815887993028912</v>
+        <v>0.277751</v>
       </c>
       <c r="H14">
-        <v>0.815887993028912</v>
+        <v>0.833253</v>
       </c>
       <c r="I14">
-        <v>0.300693781471727</v>
+        <v>0.0766201482356602</v>
       </c>
       <c r="J14">
-        <v>0.300693781471727</v>
+        <v>0.0766201482356602</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>63.5190318067127</v>
+        <v>63.73145666666667</v>
       </c>
       <c r="N14">
-        <v>63.5190318067127</v>
+        <v>191.19437</v>
       </c>
       <c r="O14">
-        <v>0.3240600296043198</v>
+        <v>0.3204913989896037</v>
       </c>
       <c r="P14">
-        <v>0.3240600296043198</v>
+        <v>0.3204913989896036</v>
       </c>
       <c r="Q14">
-        <v>51.82441537991845</v>
+        <v>17.70147582062333</v>
       </c>
       <c r="R14">
-        <v>51.82441537991845</v>
+        <v>159.31328238561</v>
       </c>
       <c r="S14">
-        <v>0.09744283572556271</v>
+        <v>0.02455609849883755</v>
       </c>
       <c r="T14">
-        <v>0.09744283572556271</v>
+        <v>0.02455609849883755</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.815887993028912</v>
+        <v>0.277751</v>
       </c>
       <c r="H15">
-        <v>0.815887993028912</v>
+        <v>0.833253</v>
       </c>
       <c r="I15">
-        <v>0.300693781471727</v>
+        <v>0.0766201482356602</v>
       </c>
       <c r="J15">
-        <v>0.300693781471727</v>
+        <v>0.0766201482356602</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>65.33787363553991</v>
+        <v>66.36787400000001</v>
       </c>
       <c r="N15">
-        <v>65.33787363553991</v>
+        <v>199.103622</v>
       </c>
       <c r="O15">
-        <v>0.333339357706941</v>
+        <v>0.3337493586169783</v>
       </c>
       <c r="P15">
-        <v>0.333339357706941</v>
+        <v>0.3337493586169782</v>
       </c>
       <c r="Q15">
-        <v>53.30838658927732</v>
+        <v>18.43374337137401</v>
       </c>
       <c r="R15">
-        <v>53.30838658927732</v>
+        <v>165.903690342366</v>
       </c>
       <c r="S15">
-        <v>0.1002330719822568</v>
+        <v>0.02557192533078939</v>
       </c>
       <c r="T15">
-        <v>0.1002330719822568</v>
+        <v>0.02557192533078939</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.277751</v>
+      </c>
+      <c r="H16">
+        <v>0.833253</v>
+      </c>
+      <c r="I16">
+        <v>0.0766201482356602</v>
+      </c>
+      <c r="J16">
+        <v>0.0766201482356602</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>14.48213333333333</v>
+      </c>
+      <c r="N16">
+        <v>43.4464</v>
+      </c>
+      <c r="O16">
+        <v>0.07282744526976351</v>
+      </c>
+      <c r="P16">
+        <v>0.07282744526976349</v>
+      </c>
+      <c r="Q16">
+        <v>4.022427015466667</v>
+      </c>
+      <c r="R16">
+        <v>36.2018431392</v>
+      </c>
+      <c r="S16">
+        <v>0.00558004965219371</v>
+      </c>
+      <c r="T16">
+        <v>0.005580049652193709</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.3223773333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.967132</v>
+      </c>
+      <c r="I17">
+        <v>0.08893072956647083</v>
+      </c>
+      <c r="J17">
+        <v>0.08893072956647083</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>13.10053366666667</v>
+      </c>
+      <c r="N17">
+        <v>39.301601</v>
+      </c>
+      <c r="O17">
+        <v>0.0658796861383586</v>
+      </c>
+      <c r="P17">
+        <v>0.06587968613835858</v>
+      </c>
+      <c r="Q17">
+        <v>4.223315108703555</v>
+      </c>
+      <c r="R17">
+        <v>38.009835978332</v>
+      </c>
+      <c r="S17">
+        <v>0.005858728551894345</v>
+      </c>
+      <c r="T17">
+        <v>0.005858728551894344</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.3223773333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.967132</v>
+      </c>
+      <c r="I18">
+        <v>0.08893072956647083</v>
+      </c>
+      <c r="J18">
+        <v>0.08893072956647083</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>41.17343766666667</v>
+      </c>
+      <c r="N18">
+        <v>123.520313</v>
+      </c>
+      <c r="O18">
+        <v>0.2070521109852959</v>
+      </c>
+      <c r="P18">
+        <v>0.2070521109852959</v>
+      </c>
+      <c r="Q18">
+        <v>13.27338303914622</v>
+      </c>
+      <c r="R18">
+        <v>119.460447352316</v>
+      </c>
+      <c r="S18">
+        <v>0.01841329528820025</v>
+      </c>
+      <c r="T18">
+        <v>0.01841329528820025</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.3223773333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.967132</v>
+      </c>
+      <c r="I19">
+        <v>0.08893072956647083</v>
+      </c>
+      <c r="J19">
+        <v>0.08893072956647083</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>63.73145666666667</v>
+      </c>
+      <c r="N19">
+        <v>191.19437</v>
+      </c>
+      <c r="O19">
+        <v>0.3204913989896037</v>
+      </c>
+      <c r="P19">
+        <v>0.3204913989896036</v>
+      </c>
+      <c r="Q19">
+        <v>20.54557704964889</v>
+      </c>
+      <c r="R19">
+        <v>184.91019344684</v>
+      </c>
+      <c r="S19">
+        <v>0.02850153393192435</v>
+      </c>
+      <c r="T19">
+        <v>0.02850153393192434</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.3223773333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.967132</v>
+      </c>
+      <c r="I20">
+        <v>0.08893072956647083</v>
+      </c>
+      <c r="J20">
+        <v>0.08893072956647083</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>66.36787400000001</v>
+      </c>
+      <c r="N20">
+        <v>199.103622</v>
+      </c>
+      <c r="O20">
+        <v>0.3337493586169783</v>
+      </c>
+      <c r="P20">
+        <v>0.3337493586169782</v>
+      </c>
+      <c r="Q20">
+        <v>21.39549823912267</v>
+      </c>
+      <c r="R20">
+        <v>192.559484152104</v>
+      </c>
+      <c r="S20">
+        <v>0.02968057395414959</v>
+      </c>
+      <c r="T20">
+        <v>0.02968057395414958</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.3223773333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.967132</v>
+      </c>
+      <c r="I21">
+        <v>0.08893072956647083</v>
+      </c>
+      <c r="J21">
+        <v>0.08893072956647083</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>14.48213333333333</v>
+      </c>
+      <c r="N21">
+        <v>43.4464</v>
+      </c>
+      <c r="O21">
+        <v>0.07282744526976351</v>
+      </c>
+      <c r="P21">
+        <v>0.07282744526976349</v>
+      </c>
+      <c r="Q21">
+        <v>4.668711524977778</v>
+      </c>
+      <c r="R21">
+        <v>42.0184037248</v>
+      </c>
+      <c r="S21">
+        <v>0.006476597840302294</v>
+      </c>
+      <c r="T21">
+        <v>0.006476597840302293</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.200645</v>
+      </c>
+      <c r="H22">
+        <v>3.601935</v>
+      </c>
+      <c r="I22">
+        <v>0.3312088808983739</v>
+      </c>
+      <c r="J22">
+        <v>0.3312088808983739</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>13.10053366666667</v>
+      </c>
+      <c r="N22">
+        <v>39.301601</v>
+      </c>
+      <c r="O22">
+        <v>0.0658796861383586</v>
+      </c>
+      <c r="P22">
+        <v>0.06587968613835858</v>
+      </c>
+      <c r="Q22">
+        <v>15.729090244215</v>
+      </c>
+      <c r="R22">
+        <v>141.561812197935</v>
+      </c>
+      <c r="S22">
+        <v>0.02181993711982186</v>
+      </c>
+      <c r="T22">
+        <v>0.02181993711982186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.200645</v>
+      </c>
+      <c r="H23">
+        <v>3.601935</v>
+      </c>
+      <c r="I23">
+        <v>0.3312088808983739</v>
+      </c>
+      <c r="J23">
+        <v>0.3312088808983739</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>41.17343766666667</v>
+      </c>
+      <c r="N23">
+        <v>123.520313</v>
+      </c>
+      <c r="O23">
+        <v>0.2070521109852959</v>
+      </c>
+      <c r="P23">
+        <v>0.2070521109852959</v>
+      </c>
+      <c r="Q23">
+        <v>49.43468206729501</v>
+      </c>
+      <c r="R23">
+        <v>444.9121386056551</v>
+      </c>
+      <c r="S23">
+        <v>0.06857749796708576</v>
+      </c>
+      <c r="T23">
+        <v>0.06857749796708575</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.815887993028912</v>
-      </c>
-      <c r="H16">
-        <v>0.815887993028912</v>
-      </c>
-      <c r="I16">
-        <v>0.300693781471727</v>
-      </c>
-      <c r="J16">
-        <v>0.300693781471727</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>13.2198069288072</v>
-      </c>
-      <c r="N16">
-        <v>13.2198069288072</v>
-      </c>
-      <c r="O16">
-        <v>0.06744452651212984</v>
-      </c>
-      <c r="P16">
-        <v>0.06744452651212984</v>
-      </c>
-      <c r="Q16">
-        <v>10.78588174337421</v>
-      </c>
-      <c r="R16">
-        <v>10.78588174337421</v>
-      </c>
-      <c r="S16">
-        <v>0.02028014971650247</v>
-      </c>
-      <c r="T16">
-        <v>0.02028014971650247</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.200645</v>
+      </c>
+      <c r="H24">
+        <v>3.601935</v>
+      </c>
+      <c r="I24">
+        <v>0.3312088808983739</v>
+      </c>
+      <c r="J24">
+        <v>0.3312088808983739</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>63.73145666666667</v>
+      </c>
+      <c r="N24">
+        <v>191.19437</v>
+      </c>
+      <c r="O24">
+        <v>0.3204913989896037</v>
+      </c>
+      <c r="P24">
+        <v>0.3204913989896036</v>
+      </c>
+      <c r="Q24">
+        <v>76.51885478954999</v>
+      </c>
+      <c r="R24">
+        <v>688.66969310595</v>
+      </c>
+      <c r="S24">
+        <v>0.1061495975969009</v>
+      </c>
+      <c r="T24">
+        <v>0.1061495975969008</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.200645</v>
+      </c>
+      <c r="H25">
+        <v>3.601935</v>
+      </c>
+      <c r="I25">
+        <v>0.3312088808983739</v>
+      </c>
+      <c r="J25">
+        <v>0.3312088808983739</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>66.36787400000001</v>
+      </c>
+      <c r="N25">
+        <v>199.103622</v>
+      </c>
+      <c r="O25">
+        <v>0.3337493586169783</v>
+      </c>
+      <c r="P25">
+        <v>0.3337493586169782</v>
+      </c>
+      <c r="Q25">
+        <v>79.68425607873002</v>
+      </c>
+      <c r="R25">
+        <v>717.1583047085701</v>
+      </c>
+      <c r="S25">
+        <v>0.1105407515680794</v>
+      </c>
+      <c r="T25">
+        <v>0.1105407515680794</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.200645</v>
+      </c>
+      <c r="H26">
+        <v>3.601935</v>
+      </c>
+      <c r="I26">
+        <v>0.3312088808983739</v>
+      </c>
+      <c r="J26">
+        <v>0.3312088808983739</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>14.48213333333333</v>
+      </c>
+      <c r="N26">
+        <v>43.4464</v>
+      </c>
+      <c r="O26">
+        <v>0.07282744526976351</v>
+      </c>
+      <c r="P26">
+        <v>0.07282744526976349</v>
+      </c>
+      <c r="Q26">
+        <v>17.387900976</v>
+      </c>
+      <c r="R26">
+        <v>156.491108784</v>
+      </c>
+      <c r="S26">
+        <v>0.02412109664648594</v>
+      </c>
+      <c r="T26">
+        <v>0.02412109664648594</v>
       </c>
     </row>
   </sheetData>
